--- a/AUTOMATION_DATA_SHEET_7 Gens - Karr JJM.xlsx
+++ b/AUTOMATION_DATA_SHEET_7 Gens - Karr JJM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Seven Gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougd\Desktop\git\7Gens_Karr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C7B3C9-A5FB-489E-8584-36A29B6F32A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE3EE71-FE3A-4B80-89F6-A593C7C413A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{58C3B267-3ABF-4EB5-BBD6-7AE44ECDBAEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58C3B267-3ABF-4EB5-BBD6-7AE44ECDBAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="DATASHEET" sheetId="1" r:id="rId1"/>
@@ -456,52 +456,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,6 +470,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,44 +546,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,31 +809,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,15 +887,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -944,7 +944,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -973,13 +973,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1030,7 +1030,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1059,13 +1059,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1116,7 +1116,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1145,13 +1145,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1202,7 +1202,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1231,9 +1231,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1288,7 +1288,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1317,15 +1317,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1374,7 +1374,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1403,9 +1403,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1460,7 +1460,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1489,15 +1489,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1546,7 +1546,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1575,9 +1575,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1632,7 +1632,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1661,9 +1661,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1718,7 +1718,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1747,15 +1747,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1804,7 +1804,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1833,15 +1833,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1890,7 +1890,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1919,9 +1919,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1976,7 +1976,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2005,9 +2005,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -2062,7 +2062,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2091,15 +2091,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2148,7 +2148,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2177,9 +2177,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -2234,7 +2234,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2263,15 +2263,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2320,7 +2320,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2349,9 +2349,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -2406,7 +2406,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2435,15 +2435,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2492,7 +2492,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2521,13 +2521,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2578,7 +2578,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2607,13 +2607,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2664,7 +2664,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2693,13 +2693,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2750,7 +2750,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2779,9 +2779,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -2836,7 +2836,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2865,15 +2865,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2922,7 +2922,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2951,9 +2951,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3008,7 +3008,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3037,15 +3037,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3094,7 +3094,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3123,9 +3123,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3180,7 +3180,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3209,9 +3209,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3266,7 +3266,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3295,15 +3295,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3352,7 +3352,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3381,15 +3381,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3438,7 +3438,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3467,9 +3467,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3524,7 +3524,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3553,9 +3553,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3610,7 +3610,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3639,15 +3639,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3696,7 +3696,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3725,9 +3725,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3782,7 +3782,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3811,15 +3811,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3868,7 +3868,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3897,9 +3897,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3954,7 +3954,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3983,15 +3983,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4040,7 +4040,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4069,13 +4069,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4126,7 +4126,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4155,13 +4155,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4212,7 +4212,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4241,13 +4241,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>80</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4298,7 +4298,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4327,9 +4327,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -4384,7 +4384,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4413,15 +4413,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4470,7 +4470,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4499,9 +4499,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -4556,7 +4556,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4585,15 +4585,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4642,7 +4642,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4671,9 +4671,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -4728,7 +4728,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4757,9 +4757,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -4814,7 +4814,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4843,15 +4843,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4900,7 +4900,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4929,15 +4929,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4986,7 +4986,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5015,9 +5015,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -5072,7 +5072,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5101,9 +5101,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -5158,7 +5158,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5187,15 +5187,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5244,7 +5244,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5273,9 +5273,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -5330,7 +5330,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5359,15 +5359,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5416,7 +5416,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5445,9 +5445,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -5502,7 +5502,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5531,15 +5531,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5588,7 +5588,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5617,13 +5617,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5674,7 +5674,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5703,13 +5703,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5760,7 +5760,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5789,13 +5789,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>80</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -5846,7 +5846,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5875,9 +5875,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -5932,7 +5932,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5961,15 +5961,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6018,7 +6018,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6047,9 +6047,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -6104,7 +6104,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6133,15 +6133,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6190,7 +6190,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6219,9 +6219,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -6276,7 +6276,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6305,9 +6305,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -6362,7 +6362,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6391,15 +6391,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6448,7 +6448,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6477,15 +6477,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6534,7 +6534,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6563,9 +6563,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>90</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -6620,7 +6620,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6649,9 +6649,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -6706,7 +6706,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6735,15 +6735,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>92</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6792,7 +6792,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6821,9 +6821,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>93</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -6878,7 +6878,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6907,15 +6907,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6964,7 +6964,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6993,9 +6993,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -7050,7 +7050,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7079,15 +7079,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7136,7 +7136,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7165,15 +7165,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7222,7 +7222,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7551,73 +7551,73 @@
   </sheetPr>
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D51" sqref="D51:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="24"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="24"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7629,54 +7629,54 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-    </row>
-    <row r="7" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="21"/>
       <c r="F7" t="s">
         <v>52</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="26"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="49"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -7688,45 +7688,45 @@
       <c r="I10" s="17"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="23" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="32"/>
+      <c r="D12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="35">
+      <c r="G12" s="24"/>
+      <c r="H12" s="22">
         <v>0</v>
       </c>
-      <c r="I12" s="36"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="4" t="s">
         <v>46</v>
       </c>
@@ -7734,18 +7734,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31">
+      <c r="G13" s="24"/>
+      <c r="H13" s="26">
         <v>10000</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="4" t="s">
         <v>46</v>
       </c>
@@ -7756,106 +7756,106 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="D14" s="23" t="s">
+      <c r="B14" s="32"/>
+      <c r="D14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32">
+      <c r="G14" s="24"/>
+      <c r="H14" s="30">
         <v>-20</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31">
+      <c r="G15" s="24"/>
+      <c r="H15" s="26">
         <v>110</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="D16" s="23" t="s">
+      <c r="B16" s="32"/>
+      <c r="D16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="32"/>
+      <c r="D18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -7867,61 +7867,61 @@
       <c r="I20" s="17"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="23" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="32"/>
+      <c r="D22" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="51"/>
+      <c r="F22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="35">
+      <c r="G22" s="24"/>
+      <c r="H22" s="22">
         <v>0</v>
       </c>
-      <c r="I22" s="36"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="4"/>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="F23" s="30" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="F23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="35">
+      <c r="G23" s="25"/>
+      <c r="H23" s="22">
         <v>10000</v>
       </c>
-      <c r="I23" s="36"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="4" t="s">
         <v>46</v>
       </c>
@@ -7932,105 +7932,105 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="D24" s="23" t="s">
+      <c r="B24" s="32"/>
+      <c r="D24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="35">
+      <c r="G24" s="24"/>
+      <c r="H24" s="22">
         <v>-20</v>
       </c>
-      <c r="I24" s="36"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="35">
+      <c r="G25" s="25"/>
+      <c r="H25" s="22">
         <v>110</v>
       </c>
-      <c r="I25" s="36"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="D26" s="23" t="s">
+      <c r="B26" s="32"/>
+      <c r="D26" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="F27" s="30" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="F27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="31" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="D28" s="23" t="s">
+      <c r="B28" s="32"/>
+      <c r="D28" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="23" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -8042,62 +8042,62 @@
       <c r="I30" s="17"/>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="23" t="s">
+      <c r="G31" s="53"/>
+      <c r="H31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="19" t="s">
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="D32" s="33" t="s">
+      <c r="B32" s="32"/>
+      <c r="D32" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="30" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="35">
+      <c r="G32" s="24"/>
+      <c r="H32" s="22">
         <v>0</v>
       </c>
-      <c r="I32" s="36"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="4"/>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31">
+      <c r="G33" s="24"/>
+      <c r="H33" s="26">
         <v>10000</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="4" t="s">
         <v>46</v>
       </c>
@@ -8108,104 +8108,104 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="D34" s="23" t="s">
+      <c r="B34" s="32"/>
+      <c r="D34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="30" t="s">
+      <c r="E34" s="21"/>
+      <c r="F34" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="32">
+      <c r="G34" s="24"/>
+      <c r="H34" s="30">
         <v>-20</v>
       </c>
-      <c r="I34" s="31"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31">
+      <c r="G35" s="24"/>
+      <c r="H35" s="26">
         <v>110</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="D36" s="23" t="s">
+      <c r="B36" s="32"/>
+      <c r="D36" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="30" t="s">
+      <c r="E36" s="21"/>
+      <c r="F36" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="31"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31" t="s">
+      <c r="G37" s="24"/>
+      <c r="H37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="D38" s="23" t="s">
+      <c r="B38" s="32"/>
+      <c r="D38" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="23" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="24"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -8217,56 +8217,56 @@
       <c r="I40" s="17"/>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="26"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="27" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A42" s="19" t="s">
+      <c r="G41" s="53"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="D42" s="23" t="s">
+      <c r="B42" s="32"/>
+      <c r="D42" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="30" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="32">
+      <c r="G42" s="24"/>
+      <c r="H42" s="30">
         <v>0</v>
       </c>
-      <c r="I42" s="31"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="4"/>
       <c r="K42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="4" t="s">
         <v>46</v>
       </c>
@@ -8277,130 +8277,130 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="D44" s="23" t="s">
+      <c r="B44" s="32"/>
+      <c r="D44" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="30" t="s">
+      <c r="E44" s="21"/>
+      <c r="F44" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="31"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="D46" s="23" t="s">
+      <c r="B46" s="32"/>
+      <c r="D46" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="30" t="s">
+      <c r="E46" s="21"/>
+      <c r="F46" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31" t="s">
+      <c r="G46" s="24"/>
+      <c r="H46" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="31"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31" t="s">
+      <c r="G47" s="24"/>
+      <c r="H47" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="31"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="19" t="s">
+    <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="D48" s="23" t="s">
+      <c r="B48" s="32"/>
+      <c r="D48" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="20" t="s">
+      <c r="E48" s="21"/>
+      <c r="F48" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="23" t="s">
+      <c r="G48" s="32"/>
+      <c r="H48" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="24"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A50" s="53" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="55"/>
-    </row>
-    <row r="51" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="36"/>
+      <c r="E51" s="23"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>29</v>
       </c>
@@ -8410,20 +8410,20 @@
       <c r="E53" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="D54" s="14"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="D55" s="6">
         <v>3</v>
@@ -8431,29 +8431,29 @@
       <c r="E55" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-    </row>
-    <row r="56" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A56" s="53" t="s">
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="55"/>
-    </row>
-    <row r="57" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="10" t="s">
         <v>26</v>
@@ -8461,65 +8461,65 @@
       <c r="C57" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="49" t="str">
+      <c r="D57" s="38" t="str">
         <f>D11</f>
         <v>40AIT-400</v>
       </c>
-      <c r="E57" s="50"/>
+      <c r="E57" s="39"/>
       <c r="G57" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H57" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="47" t="str">
+      <c r="I57" s="36" t="str">
         <f>D21</f>
         <v>50-AIT-400</v>
       </c>
-      <c r="J57" s="51"/>
-    </row>
-    <row r="58" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="J57" s="40"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="23" t="str">
+      <c r="C58" s="19" t="str">
         <f>H11</f>
         <v>Condy</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="24"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
       <c r="G58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H58" s="23" t="str">
+      <c r="H58" s="19" t="str">
         <f>H21</f>
         <v>Condy</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="E59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="E60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="E61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="E62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="E63" s="6" t="s">
         <v>13</v>
@@ -8528,7 +8528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="E64" s="6" t="s">
         <v>13</v>
@@ -8537,7 +8537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="E65" s="6" t="s">
         <v>13</v>
@@ -8546,7 +8546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="E66" s="6" t="s">
         <v>13</v>
@@ -8555,7 +8555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="E67" s="6" t="s">
         <v>13</v>
@@ -8564,7 +8564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="E68" s="6" t="s">
         <v>13</v>
@@ -8573,7 +8573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="E69" s="6" t="s">
         <v>13</v>
@@ -8582,7 +8582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="E70" s="6" t="s">
         <v>13</v>
@@ -8591,7 +8591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="E71" s="6" t="s">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="E72" s="6" t="s">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="E73" s="6" t="s">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="E74" s="6" t="s">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="E75" s="6" t="s">
         <v>0</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="E76" s="6" t="s">
         <v>0</v>
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -8653,7 +8653,7 @@
       <c r="E77" s="1"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="12" t="s">
         <v>24</v>
@@ -8661,11 +8661,11 @@
       <c r="C78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="47" t="str">
+      <c r="D78" s="36" t="str">
         <f>D31</f>
         <v>60-AIT-400</v>
       </c>
-      <c r="E78" s="48"/>
+      <c r="E78" s="37"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10" t="s">
         <v>23</v>
@@ -8673,52 +8673,52 @@
       <c r="H78" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
-    </row>
-    <row r="79" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="I78" s="38"/>
+      <c r="J78" s="39"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="23" t="str">
+      <c r="C79" s="19" t="str">
         <f>H31</f>
         <v>Condy</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
       <c r="F79" s="5"/>
       <c r="G79" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="19">
         <f>H41</f>
         <v>0</v>
       </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="24"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="F80" s="5"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="F81" s="5"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="F82" s="5"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="F83" s="5"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="E84" s="7" t="s">
         <v>13</v>
@@ -8728,7 +8728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="E85" s="7" t="s">
         <v>13</v>
@@ -8738,7 +8738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="E86" s="7" t="s">
         <v>13</v>
@@ -8748,7 +8748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="E87" s="7" t="s">
         <v>13</v>
@@ -8758,7 +8758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="E88" s="7" t="s">
         <v>13</v>
@@ -8768,7 +8768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="E89" s="7" t="s">
         <v>13</v>
@@ -8778,7 +8778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="E90" s="7" t="s">
         <v>13</v>
@@ -8788,7 +8788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="E91" s="7" t="s">
         <v>13</v>
@@ -8798,7 +8798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="E92" s="7" t="s">
         <v>0</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="E93" s="7" t="s">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="E94" s="7" t="s">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="E95" s="7" t="s">
         <v>0</v>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="E96" s="7" t="s">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="E97" s="7" t="s">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -8870,25 +8870,25 @@
       <c r="I98" s="2"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="102" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A102" s="43" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="45"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="35"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>12</v>
       </c>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>15</v>
       </c>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>0</v>
       </c>
@@ -8951,11 +8951,11 @@
       </c>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>10</v>
       </c>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>6</v>
       </c>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>0</v>
       </c>
@@ -9000,18 +9000,18 @@
       </c>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="E111" t="s">
         <v>0</v>
       </c>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9025,6 +9025,107 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A34:B35"/>
     <mergeCell ref="H58:J58"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="F23:G23"/>
@@ -9049,107 +9150,6 @@
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:E48 D18:E18 D38:E38" xr:uid="{BA6AE503-FE5D-4A1A-B5FF-C58DE9EF8707}">
@@ -9203,15 +9203,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9225,13 +9225,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -9247,13 +9247,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -9269,13 +9269,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -9291,9 +9291,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9313,15 +9313,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9335,9 +9335,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9357,15 +9357,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9379,9 +9379,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9401,9 +9401,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9423,15 +9423,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9445,15 +9445,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9467,9 +9467,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9489,9 +9489,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9511,15 +9511,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9533,9 +9533,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9555,15 +9555,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9577,9 +9577,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -9599,15 +9599,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9621,13 +9621,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -9643,13 +9643,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -9665,13 +9665,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -9687,9 +9687,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9709,15 +9709,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>62</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9731,9 +9731,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>63</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9753,15 +9753,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9775,9 +9775,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9797,9 +9797,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9819,15 +9819,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9841,15 +9841,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9863,9 +9863,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9885,9 +9885,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9907,15 +9907,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9929,9 +9929,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9951,15 +9951,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9973,9 +9973,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -9995,15 +9995,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10017,13 +10017,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10039,13 +10039,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10061,13 +10061,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>80</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10083,9 +10083,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10105,15 +10105,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10127,9 +10127,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>84</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10149,15 +10149,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10171,9 +10171,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10193,9 +10193,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10215,15 +10215,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>88</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10237,15 +10237,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>89</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10259,9 +10259,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10281,9 +10281,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10303,15 +10303,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>92</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10325,9 +10325,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10347,15 +10347,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>96</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10369,9 +10369,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>95</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
@@ -10391,15 +10391,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>81</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10413,13 +10413,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10435,13 +10435,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10457,13 +10457,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>80</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -10479,9 +10479,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10501,15 +10501,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10523,9 +10523,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>84</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10545,15 +10545,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>85</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10567,9 +10567,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>86</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10589,9 +10589,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10611,15 +10611,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>88</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10633,15 +10633,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>89</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10655,9 +10655,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>90</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10677,9 +10677,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10699,15 +10699,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>92</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10721,9 +10721,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>93</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10743,15 +10743,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>94</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>571500</xdr:colOff>
                     <xdr:row>96</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10765,9 +10765,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>95</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -10787,15 +10787,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10809,15 +10809,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:colOff>594360</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/AUTOMATION_DATA_SHEET_7 Gens - Karr JJM.xlsx
+++ b/AUTOMATION_DATA_SHEET_7 Gens - Karr JJM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougd\Desktop\git\7Gens_Karr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE3EE71-FE3A-4B80-89F6-A593C7C413A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1339B9-FD7D-45BE-9B34-D670B1C9D2F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58C3B267-3ABF-4EB5-BBD6-7AE44ECDBAEA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
     <t>N/A</t>
   </si>
@@ -456,13 +456,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,63 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,26 +528,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7551,8 +7551,8 @@
   </sheetPr>
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7561,60 +7561,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7630,27 +7630,27 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="24"/>
       <c r="F7" t="s">
         <v>52</v>
       </c>
@@ -7660,20 +7660,20 @@
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="31"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="46"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7689,44 +7689,44 @@
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="52" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="20"/>
+      <c r="D12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="22">
+      <c r="G12" s="30"/>
+      <c r="H12" s="35">
         <v>0</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="4" t="s">
         <v>46</v>
       </c>
@@ -7735,17 +7735,17 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="26">
+      <c r="G13" s="30"/>
+      <c r="H13" s="31">
         <v>10000</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="4" t="s">
         <v>46</v>
       </c>
@@ -7757,102 +7757,102 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="D14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="30">
+      <c r="G14" s="30"/>
+      <c r="H14" s="32">
         <v>-20</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26">
+      <c r="G15" s="30"/>
+      <c r="H15" s="31">
         <v>110</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="D16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="30"/>
+      <c r="H17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="D18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="32" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="19" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7868,60 +7868,60 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="52" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="D22" s="50" t="s">
+      <c r="B22" s="20"/>
+      <c r="D22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="24" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22">
+      <c r="G22" s="30"/>
+      <c r="H22" s="35">
         <v>0</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="4"/>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="F23" s="24" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="F23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="22">
+      <c r="G23" s="52"/>
+      <c r="H23" s="35">
         <v>10000</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="4" t="s">
         <v>46</v>
       </c>
@@ -7933,101 +7933,101 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="D24" s="19" t="s">
+      <c r="B24" s="20"/>
+      <c r="D24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="24" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="22">
+      <c r="G24" s="30"/>
+      <c r="H24" s="35">
         <v>-20</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="22">
+      <c r="G25" s="52"/>
+      <c r="H25" s="35">
         <v>110</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="D26" s="19" t="s">
+      <c r="B26" s="20"/>
+      <c r="D26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="F27" s="24" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="F27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26" t="s">
+      <c r="G27" s="52"/>
+      <c r="H27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="26"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="D28" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="D28" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="19" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8043,61 +8043,61 @@
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="52" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="19" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="D32" s="50" t="s">
+      <c r="B32" s="20"/>
+      <c r="D32" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="24" t="s">
+      <c r="E32" s="34"/>
+      <c r="F32" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="22">
+      <c r="G32" s="30"/>
+      <c r="H32" s="35">
         <v>0</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="4"/>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="26">
+      <c r="G33" s="30"/>
+      <c r="H33" s="31">
         <v>10000</v>
       </c>
-      <c r="I33" s="26"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="4" t="s">
         <v>46</v>
       </c>
@@ -8109,100 +8109,100 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="D34" s="19" t="s">
+      <c r="B34" s="20"/>
+      <c r="D34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="24" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="30">
+      <c r="G34" s="30"/>
+      <c r="H34" s="32">
         <v>-20</v>
       </c>
-      <c r="I34" s="26"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="26">
+      <c r="G35" s="30"/>
+      <c r="H35" s="31">
         <v>110</v>
       </c>
-      <c r="I35" s="26"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="D36" s="19" t="s">
+      <c r="B36" s="20"/>
+      <c r="D36" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="24" t="s">
+      <c r="E36" s="24"/>
+      <c r="F36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="26" t="s">
+      <c r="G36" s="30"/>
+      <c r="H36" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="26"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="26" t="s">
+      <c r="G37" s="30"/>
+      <c r="H37" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="26"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="D38" s="19" t="s">
+      <c r="B38" s="20"/>
+      <c r="D38" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="19" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -8218,55 +8218,55 @@
       <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="55"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="52" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="D42" s="19" t="s">
+      <c r="B42" s="20"/>
+      <c r="D42" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="24" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="30">
+      <c r="G42" s="30"/>
+      <c r="H42" s="32">
         <v>0</v>
       </c>
-      <c r="I42" s="26"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="4"/>
       <c r="K42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="4" t="s">
         <v>46</v>
       </c>
@@ -8278,122 +8278,122 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="D44" s="19" t="s">
+      <c r="B44" s="20"/>
+      <c r="D44" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="26"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="D46" s="19" t="s">
+      <c r="B46" s="20"/>
+      <c r="D46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="24" t="s">
+      <c r="E46" s="24"/>
+      <c r="F46" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="26" t="s">
+      <c r="G46" s="30"/>
+      <c r="H46" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="26"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="26" t="s">
+      <c r="G47" s="30"/>
+      <c r="H47" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="26"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="D48" s="19" t="s">
+      <c r="B48" s="20"/>
+      <c r="D48" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="32" t="s">
+      <c r="E48" s="24"/>
+      <c r="F48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="19" t="s">
+      <c r="G48" s="20"/>
+      <c r="H48" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="55"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="23"/>
+      <c r="E51" s="36"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -8410,13 +8410,13 @@
       <c r="E53" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
@@ -8431,27 +8431,27 @@
       <c r="E55" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
@@ -8461,43 +8461,43 @@
       <c r="C57" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="38" t="str">
+      <c r="D57" s="49" t="str">
         <f>D11</f>
         <v>40AIT-400</v>
       </c>
-      <c r="E57" s="39"/>
+      <c r="E57" s="50"/>
       <c r="G57" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H57" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="36" t="str">
+      <c r="I57" s="47" t="str">
         <f>D21</f>
         <v>50-AIT-400</v>
       </c>
-      <c r="J57" s="40"/>
+      <c r="J57" s="51"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="19" t="str">
+      <c r="C58" s="23" t="str">
         <f>H11</f>
         <v>Condy</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="24"/>
       <c r="G58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H58" s="19" t="str">
+      <c r="H58" s="23" t="str">
         <f>H21</f>
         <v>Condy</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="21"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="24"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
@@ -8661,11 +8661,11 @@
       <c r="C78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="36" t="str">
+      <c r="D78" s="47" t="str">
         <f>D31</f>
         <v>60-AIT-400</v>
       </c>
-      <c r="E78" s="37"/>
+      <c r="E78" s="48"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10" t="s">
         <v>23</v>
@@ -8673,30 +8673,32 @@
       <c r="H78" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I78" s="38"/>
-      <c r="J78" s="39"/>
+      <c r="I78" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="50"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="19" t="str">
+      <c r="C79" s="23" t="str">
         <f>H31</f>
         <v>Condy</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="5"/>
       <c r="G79" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="23">
         <f>H41</f>
         <v>0</v>
       </c>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
@@ -8871,18 +8873,18 @@
       <c r="J98" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="35"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="45"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -9025,6 +9027,107 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="A48:B49"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:G49"/>
@@ -9049,107 +9152,6 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A32:B33"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:E48 D18:E18 D38:E38" xr:uid="{BA6AE503-FE5D-4A1A-B5FF-C58DE9EF8707}">
